--- a/data/trans_bre/P41C_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P41C_R-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.103633851589585</v>
+        <v>2.103633851589587</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.495899862581773</v>
+        <v>0.4958998625817738</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.636274167660793</v>
+        <v>-3.125960500487071</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.5418670653499799</v>
+        <v>-0.6024763844805821</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.356113158124946</v>
+        <v>7.17207692577519</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4.025246525208759</v>
+        <v>3.654601916180877</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.505109934254094</v>
+        <v>-1.774668008274032</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4489139178045289</v>
+        <v>-0.4574997939155906</v>
       </c>
     </row>
     <row r="9">
@@ -626,9 +626,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.21587529697632</v>
-      </c>
-      <c r="D9" s="6" t="inlineStr"/>
+        <v>10.49891802148423</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>8.629836441932412</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -642,7 +644,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-3.590126448892031</v>
+        <v>-3.590126448892029</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-0.6266925858035528</v>
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.71714524888333</v>
+        <v>-14.31210504120929</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -668,7 +670,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.420061857831957</v>
+        <v>2.229557842005685</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -684,7 +686,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-2.226546397595483</v>
+        <v>-2.226546397595484</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-0.5143822174673086</v>
@@ -698,10 +700,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.716127870460828</v>
+        <v>-5.650952205296941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8620626503600569</v>
+        <v>-0.8463440145358836</v>
       </c>
     </row>
     <row r="15">
@@ -712,10 +714,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7472944100301595</v>
+        <v>0.9007190157760031</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4587997941985931</v>
+        <v>0.7123231129219533</v>
       </c>
     </row>
     <row r="16">
@@ -744,7 +746,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.394276446475661</v>
+        <v>-1.825794336661225</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -756,7 +758,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.091296166419693</v>
+        <v>5.839895019735094</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -800,7 +802,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.930726751508833</v>
+        <v>2.336155947888276</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -830,10 +832,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.177330320056268</v>
+        <v>-2.212584845615228</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.4163084132549755</v>
+        <v>-0.4066072530376931</v>
       </c>
     </row>
     <row r="24">
@@ -844,10 +846,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.339871831534517</v>
+        <v>2.193864239561945</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.9156230033987567</v>
+        <v>0.9010156774966717</v>
       </c>
     </row>
     <row r="25">
